--- a/data/trans_dic/P04D$individual-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1759825757964017</v>
+        <v>0.1790479425081625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1428282378979388</v>
+        <v>0.1419313928807042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09854755447456234</v>
+        <v>0.09707657932644621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1844909972451501</v>
+        <v>0.1847502297401047</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1835066257983857</v>
+        <v>0.1831753667149815</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07921235002744459</v>
+        <v>0.07897800259647074</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1874807892383721</v>
+        <v>0.1870557182006359</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1746630245088884</v>
+        <v>0.1720845331132486</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0909754309700275</v>
+        <v>0.09263691199376091</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2296649547959602</v>
+        <v>0.2342995915984944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1962905038271686</v>
+        <v>0.1950463066785319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1540367898312023</v>
+        <v>0.1507535195617179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.230576860922584</v>
+        <v>0.2302315462843366</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2378748195038445</v>
+        <v>0.2377407379066285</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1118668430296744</v>
+        <v>0.1107571828674502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2213903728543035</v>
+        <v>0.2217844649729493</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2118177041658273</v>
+        <v>0.2109188205336036</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1211902090463637</v>
+        <v>0.1216407519522668</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2917499822832505</v>
+        <v>0.2911848159542664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2879957274063095</v>
+        <v>0.2870317856826343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.15292362030014</v>
+        <v>0.1522811306175482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2863275963757633</v>
+        <v>0.2872323746050104</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3172491717415146</v>
+        <v>0.3166019558984662</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1440908876369313</v>
+        <v>0.1463600471759905</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2960831160873029</v>
+        <v>0.2971927199035992</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3083561930170862</v>
+        <v>0.3097733062334204</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1542731172627609</v>
+        <v>0.1530055880842356</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3353670262207943</v>
+        <v>0.3372811958319288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3293583148921334</v>
+        <v>0.3288737678226271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1910154564727951</v>
+        <v>0.1889794443315585</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3341079235139787</v>
+        <v>0.3327568603352501</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3615914758850608</v>
+        <v>0.3620314340721253</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1739031065209635</v>
+        <v>0.175088063159645</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3277688829170083</v>
+        <v>0.3280446746734532</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3385472895895932</v>
+        <v>0.3385000628841244</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1790811166669648</v>
+        <v>0.1793551727816698</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3840585666123154</v>
+        <v>0.3789520597154498</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.320794617782587</v>
+        <v>0.3223019994856189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2203496062894464</v>
+        <v>0.2139907203748673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3545173383783972</v>
+        <v>0.3531413825980819</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3366983797674009</v>
+        <v>0.3399401223485295</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2369890451479094</v>
+        <v>0.2383150825959712</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3820227617918505</v>
+        <v>0.385324770373673</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3402931144676581</v>
+        <v>0.3432559502421477</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2361103582930705</v>
+        <v>0.2359567642400292</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.482515757081733</v>
+        <v>0.4808871642217415</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4078266526652132</v>
+        <v>0.4055163326952383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2910062101192311</v>
+        <v>0.2828292118883746</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4510379313654233</v>
+        <v>0.4488859312820639</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4275105531775358</v>
+        <v>0.4221469227744454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.297473407184857</v>
+        <v>0.2966392090845283</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4499008647701344</v>
+        <v>0.4537511116022854</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4019509901189356</v>
+        <v>0.401104428520362</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2836956610064707</v>
+        <v>0.2795293879646599</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2823770631178163</v>
+        <v>0.2812289084222288</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2705075670585077</v>
+        <v>0.2696412630078652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1637960800174574</v>
+        <v>0.1635485144531822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2671567249938838</v>
+        <v>0.2679391826226188</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2936463454949862</v>
+        <v>0.2931928745091591</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1550928399478148</v>
+        <v>0.1554796094413168</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2787992656828451</v>
+        <v>0.2790437720371268</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2863918091711614</v>
+        <v>0.2864403892887393</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1628480783439752</v>
+        <v>0.1629830923337429</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.314563582607171</v>
+        <v>0.3121912563568312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3029700172341503</v>
+        <v>0.3016962257176624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1940410045085822</v>
+        <v>0.1944988141467587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2988453945754324</v>
+        <v>0.2991181996707849</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3258793801247044</v>
+        <v>0.3249189519909739</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1777692743779901</v>
+        <v>0.1765705836402349</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3014684591900244</v>
+        <v>0.3014796038353399</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3088917044803434</v>
+        <v>0.3098215193544857</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1826587288487544</v>
+        <v>0.1818646502798106</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>171178</v>
+        <v>174159</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>107742</v>
+        <v>107066</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56813</v>
+        <v>55965</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>246812</v>
+        <v>247158</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>182527</v>
+        <v>182197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65061</v>
+        <v>64868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>433173</v>
+        <v>432191</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>305487</v>
+        <v>300977</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127170</v>
+        <v>129493</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>223394</v>
+        <v>227902</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>148071</v>
+        <v>147133</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88802</v>
+        <v>86910</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>308465</v>
+        <v>308003</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>236605</v>
+        <v>236471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>91882</v>
+        <v>90970</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>511521</v>
+        <v>512431</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>370471</v>
+        <v>368898</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>169406</v>
+        <v>170036</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>571482</v>
+        <v>570375</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>597990</v>
+        <v>595988</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>339948</v>
+        <v>338520</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>502103</v>
+        <v>503689</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>630787</v>
+        <v>629500</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>312083</v>
+        <v>316998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1099180</v>
+        <v>1103300</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1253371</v>
+        <v>1259131</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>677085</v>
+        <v>671521</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>656920</v>
+        <v>660669</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>683875</v>
+        <v>682869</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>424626</v>
+        <v>420100</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>585890</v>
+        <v>583521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>718952</v>
+        <v>719827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>376653</v>
+        <v>379219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1216811</v>
+        <v>1217835</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1376088</v>
+        <v>1375896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>785964</v>
+        <v>787166</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>184802</v>
+        <v>182345</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175438</v>
+        <v>176262</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>156798</v>
+        <v>152273</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>162593</v>
+        <v>161962</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>184895</v>
+        <v>186675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>173421</v>
+        <v>174392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>359030</v>
+        <v>362133</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>372970</v>
+        <v>376218</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>340792</v>
+        <v>340570</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>232177</v>
+        <v>231394</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>223035</v>
+        <v>221771</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>207076</v>
+        <v>201258</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>206860</v>
+        <v>205873</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>234763</v>
+        <v>231818</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>217682</v>
+        <v>217072</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>422823</v>
+        <v>426441</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>440549</v>
+        <v>439621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>409474</v>
+        <v>403461</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>963665</v>
+        <v>959746</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>913671</v>
+        <v>910745</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>575101</v>
+        <v>574232</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>948413</v>
+        <v>951190</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1037188</v>
+        <v>1035587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>576790</v>
+        <v>578228</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1941198</v>
+        <v>1942901</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1978887</v>
+        <v>1979222</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1177404</v>
+        <v>1178380</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1073507</v>
+        <v>1065411</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1023317</v>
+        <v>1019015</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>681293</v>
+        <v>682901</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1060908</v>
+        <v>1061876</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1151039</v>
+        <v>1147646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>661123</v>
+        <v>656665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2099037</v>
+        <v>2099115</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2134355</v>
+        <v>2140779</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1320636</v>
+        <v>1314895</v>
       </c>
     </row>
     <row r="20">
